--- a/words.xlsx
+++ b/words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arun.anil.agarwal\Desktop\arun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arun.anil.agarwal\Desktop\arun\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="460">
   <si>
     <t>a</t>
   </si>
@@ -1152,6 +1152,258 @@
   </si>
   <si>
     <t>prophecy</t>
+  </si>
+  <si>
+    <t>oracular</t>
+  </si>
+  <si>
+    <t>temperaments</t>
+  </si>
+  <si>
+    <t>lassitude</t>
+  </si>
+  <si>
+    <t>invigorate</t>
+  </si>
+  <si>
+    <t>cogent</t>
+  </si>
+  <si>
+    <t>refuted</t>
+  </si>
+  <si>
+    <t>congruities</t>
+  </si>
+  <si>
+    <t>pejorative</t>
+  </si>
+  <si>
+    <t>disenchanta</t>
+  </si>
+  <si>
+    <t>relegated</t>
+  </si>
+  <si>
+    <t>annulled</t>
+  </si>
+  <si>
+    <t>apotheosized</t>
+  </si>
+  <si>
+    <t>pedants</t>
+  </si>
+  <si>
+    <t>despodency</t>
+  </si>
+  <si>
+    <t>fruition</t>
+  </si>
+  <si>
+    <t>decisiveness</t>
+  </si>
+  <si>
+    <t>glut</t>
+  </si>
+  <si>
+    <t>pecuniary</t>
+  </si>
+  <si>
+    <t>sinecure</t>
+  </si>
+  <si>
+    <t>mendicant</t>
+  </si>
+  <si>
+    <t>facetious</t>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>grieve</t>
+  </si>
+  <si>
+    <t>mince</t>
+  </si>
+  <si>
+    <t>candor</t>
+  </si>
+  <si>
+    <t>prolix</t>
+  </si>
+  <si>
+    <t>cantankercous</t>
+  </si>
+  <si>
+    <t>timorous</t>
+  </si>
+  <si>
+    <t>staunch</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>bickering</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>squabbles</t>
+  </si>
+  <si>
+    <t>laudations</t>
+  </si>
+  <si>
+    <t>distraught</t>
+  </si>
+  <si>
+    <t>exonerated</t>
+  </si>
+  <si>
+    <t>debiliated</t>
+  </si>
+  <si>
+    <t>pristine</t>
+  </si>
+  <si>
+    <t>resilient</t>
+  </si>
+  <si>
+    <t>prevaricating</t>
+  </si>
+  <si>
+    <t>moiling</t>
+  </si>
+  <si>
+    <t>epithets</t>
+  </si>
+  <si>
+    <t>sprawling</t>
+  </si>
+  <si>
+    <t>picaresque</t>
+  </si>
+  <si>
+    <t>heterodoxy</t>
+  </si>
+  <si>
+    <t>impotence</t>
+  </si>
+  <si>
+    <t>edifying</t>
+  </si>
+  <si>
+    <t>solicitous</t>
+  </si>
+  <si>
+    <t>parious</t>
+  </si>
+  <si>
+    <t>inured</t>
+  </si>
+  <si>
+    <t>extemporize</t>
+  </si>
+  <si>
+    <t>expatiate</t>
+  </si>
+  <si>
+    <t>ennui</t>
+  </si>
+  <si>
+    <t>accolades</t>
+  </si>
+  <si>
+    <t>inerrancy</t>
+  </si>
+  <si>
+    <t>fallacy</t>
+  </si>
+  <si>
+    <t>doctrine</t>
+  </si>
+  <si>
+    <t>effacacious</t>
+  </si>
+  <si>
+    <t>belicose</t>
+  </si>
+  <si>
+    <t>chastened</t>
+  </si>
+  <si>
+    <t>diatribes</t>
+  </si>
+  <si>
+    <t>encomiums</t>
+  </si>
+  <si>
+    <t>touted</t>
+  </si>
+  <si>
+    <t>calumniated</t>
+  </si>
+  <si>
+    <t>pilloried</t>
+  </si>
+  <si>
+    <t>deride</t>
+  </si>
+  <si>
+    <t>reconnoitered</t>
+  </si>
+  <si>
+    <t>requistions</t>
+  </si>
+  <si>
+    <t>dirge</t>
+  </si>
+  <si>
+    <t>hoodwinked</t>
+  </si>
+  <si>
+    <t>surfeit</t>
+  </si>
+  <si>
+    <t>lambasted</t>
+  </si>
+  <si>
+    <t>vitiated</t>
+  </si>
+  <si>
+    <t>ingest</t>
+  </si>
+  <si>
+    <t>churlish</t>
+  </si>
+  <si>
+    <t>halcyon</t>
+  </si>
+  <si>
+    <t>eclectic</t>
+  </si>
+  <si>
+    <t>deference</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>quiescent</t>
+  </si>
+  <si>
+    <t>tact</t>
+  </si>
+  <si>
+    <t>jocularly</t>
+  </si>
+  <si>
+    <t>morosely</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,6 +2063,9 @@
       <c r="V4" t="s">
         <v>275</v>
       </c>
+      <c r="W4" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1840,6 +2095,9 @@
       <c r="I5" t="s">
         <v>67</v>
       </c>
+      <c r="J5" t="s">
+        <v>458</v>
+      </c>
       <c r="L5" t="s">
         <v>224</v>
       </c>
@@ -1855,6 +2113,9 @@
       <c r="P5" t="s">
         <v>81</v>
       </c>
+      <c r="Q5" t="s">
+        <v>456</v>
+      </c>
       <c r="R5" t="s">
         <v>52</v>
       </c>
@@ -1869,6 +2130,9 @@
       </c>
       <c r="V5" t="s">
         <v>308</v>
+      </c>
+      <c r="W5" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1946,6 +2210,12 @@
       <c r="F7" t="s">
         <v>171</v>
       </c>
+      <c r="G7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" t="s">
+        <v>421</v>
+      </c>
       <c r="I7" t="s">
         <v>78</v>
       </c>
@@ -1972,6 +2242,9 @@
       </c>
       <c r="U7" t="s">
         <v>317</v>
+      </c>
+      <c r="V7" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1993,6 +2266,12 @@
       <c r="F8" t="s">
         <v>182</v>
       </c>
+      <c r="G8" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" t="s">
+        <v>446</v>
+      </c>
       <c r="I8" t="s">
         <v>90</v>
       </c>
@@ -2037,6 +2316,9 @@
       <c r="F9" t="s">
         <v>217</v>
       </c>
+      <c r="H9" t="s">
+        <v>452</v>
+      </c>
       <c r="I9" t="s">
         <v>97</v>
       </c>
@@ -2172,8 +2454,14 @@
       <c r="I12" t="s">
         <v>121</v>
       </c>
+      <c r="L12" t="s">
+        <v>378</v>
+      </c>
       <c r="M12" t="s">
         <v>149</v>
+      </c>
+      <c r="O12" t="s">
+        <v>376</v>
       </c>
       <c r="P12" t="s">
         <v>146</v>
@@ -2210,6 +2498,9 @@
       <c r="I13" t="s">
         <v>120</v>
       </c>
+      <c r="L13" t="s">
+        <v>410</v>
+      </c>
       <c r="M13" t="s">
         <v>154</v>
       </c>
@@ -2248,6 +2539,9 @@
       <c r="I14" t="s">
         <v>130</v>
       </c>
+      <c r="L14" t="s">
+        <v>448</v>
+      </c>
       <c r="M14" t="s">
         <v>163</v>
       </c>
@@ -2298,6 +2592,9 @@
       <c r="S15" t="s">
         <v>167</v>
       </c>
+      <c r="T15" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2333,8 +2630,11 @@
       <c r="S16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2350,6 +2650,9 @@
       <c r="E17" t="s">
         <v>341</v>
       </c>
+      <c r="F17" t="s">
+        <v>390</v>
+      </c>
       <c r="I17" t="s">
         <v>168</v>
       </c>
@@ -2365,11 +2668,17 @@
       <c r="S17" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
+      <c r="B18" t="s">
+        <v>407</v>
+      </c>
       <c r="C18" t="s">
         <v>210</v>
       </c>
@@ -2379,6 +2688,9 @@
       <c r="E18" t="s">
         <v>342</v>
       </c>
+      <c r="F18" t="s">
+        <v>396</v>
+      </c>
       <c r="I18" t="s">
         <v>174</v>
       </c>
@@ -2394,11 +2706,17 @@
       <c r="S18" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
+      <c r="B19" t="s">
+        <v>435</v>
+      </c>
       <c r="C19" t="s">
         <v>249</v>
       </c>
@@ -2408,6 +2726,9 @@
       <c r="E19" t="s">
         <v>352</v>
       </c>
+      <c r="F19" t="s">
+        <v>432</v>
+      </c>
       <c r="I19" t="s">
         <v>233</v>
       </c>
@@ -2424,7 +2745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -2453,7 +2774,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -2482,7 +2803,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -2504,11 +2825,14 @@
       <c r="P22" t="s">
         <v>234</v>
       </c>
+      <c r="R22" t="s">
+        <v>381</v>
+      </c>
       <c r="S22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -2518,6 +2842,9 @@
       <c r="D23" t="s">
         <v>340</v>
       </c>
+      <c r="E23" t="s">
+        <v>412</v>
+      </c>
       <c r="I23" t="s">
         <v>264</v>
       </c>
@@ -2527,17 +2854,26 @@
       <c r="P23" t="s">
         <v>240</v>
       </c>
+      <c r="R23" t="s">
+        <v>385</v>
+      </c>
       <c r="S23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
       <c r="C24" t="s">
         <v>311</v>
       </c>
+      <c r="D24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" t="s">
+        <v>418</v>
+      </c>
       <c r="I24" t="s">
         <v>278</v>
       </c>
@@ -2547,17 +2883,26 @@
       <c r="P24" t="s">
         <v>243</v>
       </c>
+      <c r="R24" t="s">
+        <v>398</v>
+      </c>
       <c r="S24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>196</v>
       </c>
       <c r="C25" t="s">
         <v>329</v>
       </c>
+      <c r="D25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" t="s">
+        <v>423</v>
+      </c>
       <c r="I25" t="s">
         <v>280</v>
       </c>
@@ -2567,17 +2912,26 @@
       <c r="P25" t="s">
         <v>244</v>
       </c>
+      <c r="R25" t="s">
+        <v>415</v>
+      </c>
       <c r="S25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>197</v>
       </c>
       <c r="C26" t="s">
         <v>333</v>
       </c>
+      <c r="D26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" t="s">
+        <v>427</v>
+      </c>
       <c r="I26" t="s">
         <v>282</v>
       </c>
@@ -2587,115 +2941,193 @@
       <c r="P26" t="s">
         <v>246</v>
       </c>
+      <c r="R26" t="s">
+        <v>443</v>
+      </c>
       <c r="S26" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>198</v>
       </c>
       <c r="C27" t="s">
         <v>334</v>
       </c>
+      <c r="D27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" t="s">
+        <v>428</v>
+      </c>
       <c r="I27" t="s">
         <v>297</v>
       </c>
+      <c r="M27" t="s">
+        <v>395</v>
+      </c>
       <c r="P27" t="s">
         <v>248</v>
       </c>
+      <c r="R27" t="s">
+        <v>444</v>
+      </c>
       <c r="S27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
       <c r="C28" t="s">
         <v>335</v>
       </c>
+      <c r="D28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>429</v>
+      </c>
       <c r="I28" t="s">
         <v>298</v>
       </c>
+      <c r="M28" t="s">
+        <v>400</v>
+      </c>
       <c r="P28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
       <c r="C29" t="s">
         <v>336</v>
       </c>
+      <c r="D29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" t="s">
+        <v>434</v>
+      </c>
       <c r="I29" t="s">
         <v>303</v>
       </c>
+      <c r="M29" t="s">
+        <v>406</v>
+      </c>
       <c r="P29" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>337</v>
       </c>
+      <c r="D30" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" t="s">
+        <v>438</v>
+      </c>
       <c r="I30" t="s">
         <v>297</v>
       </c>
+      <c r="M30" t="s">
+        <v>417</v>
+      </c>
       <c r="P30" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
       <c r="C31" t="s">
         <v>338</v>
       </c>
+      <c r="D31" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" t="s">
+        <v>453</v>
+      </c>
       <c r="I31" t="s">
         <v>319</v>
       </c>
+      <c r="M31" t="s">
+        <v>459</v>
+      </c>
       <c r="P31" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>307</v>
       </c>
       <c r="C32" t="s">
         <v>353</v>
       </c>
+      <c r="D32" t="s">
+        <v>445</v>
+      </c>
       <c r="I32" t="s">
         <v>346</v>
       </c>
       <c r="P32" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>320</v>
       </c>
       <c r="C33" t="s">
         <v>373</v>
       </c>
+      <c r="D33" t="s">
+        <v>454</v>
+      </c>
       <c r="I33" t="s">
         <v>347</v>
       </c>
       <c r="P33" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>330</v>
       </c>
+      <c r="C34" t="s">
+        <v>380</v>
+      </c>
       <c r="I34" t="s">
         <v>348</v>
       </c>
@@ -2703,10 +3135,13 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
       <c r="I35" t="s">
         <v>349</v>
       </c>
@@ -2714,10 +3149,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>332</v>
       </c>
+      <c r="C36" t="s">
+        <v>401</v>
+      </c>
       <c r="I36" t="s">
         <v>372</v>
       </c>
@@ -2725,24 +3163,115 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37" t="s">
+        <v>379</v>
+      </c>
       <c r="P37" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" t="s">
+        <v>436</v>
+      </c>
+      <c r="I38" t="s">
+        <v>422</v>
+      </c>
       <c r="P38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" t="s">
+        <v>440</v>
+      </c>
+      <c r="I39" t="s">
+        <v>426</v>
+      </c>
       <c r="P39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>451</v>
+      </c>
+      <c r="I40" t="s">
+        <v>431</v>
+      </c>
       <c r="P40" t="s">
         <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>450</v>
+      </c>
+      <c r="P41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="586">
   <si>
     <t>a</t>
   </si>
@@ -1404,6 +1404,384 @@
   </si>
   <si>
     <t>morosely</t>
+  </si>
+  <si>
+    <t>nigh</t>
+  </si>
+  <si>
+    <t>jurors</t>
+  </si>
+  <si>
+    <t>stirring</t>
+  </si>
+  <si>
+    <t>impromptu</t>
+  </si>
+  <si>
+    <t>squandered</t>
+  </si>
+  <si>
+    <t>reaped</t>
+  </si>
+  <si>
+    <t>odious</t>
+  </si>
+  <si>
+    <t>placated</t>
+  </si>
+  <si>
+    <t>extrolled</t>
+  </si>
+  <si>
+    <t>albumen</t>
+  </si>
+  <si>
+    <t>porous</t>
+  </si>
+  <si>
+    <t>addle</t>
+  </si>
+  <si>
+    <t>coddling</t>
+  </si>
+  <si>
+    <t>fortuitously</t>
+  </si>
+  <si>
+    <t>indulgently</t>
+  </si>
+  <si>
+    <t>irresolute</t>
+  </si>
+  <si>
+    <t>genial</t>
+  </si>
+  <si>
+    <t>repulsed</t>
+  </si>
+  <si>
+    <t>natty</t>
+  </si>
+  <si>
+    <t>profligate</t>
+  </si>
+  <si>
+    <t>rapacious</t>
+  </si>
+  <si>
+    <t>sententious</t>
+  </si>
+  <si>
+    <t>recondite</t>
+  </si>
+  <si>
+    <t>elegiac</t>
+  </si>
+  <si>
+    <t>falicitous</t>
+  </si>
+  <si>
+    <t>querulous</t>
+  </si>
+  <si>
+    <t>weltering</t>
+  </si>
+  <si>
+    <t>forswearing</t>
+  </si>
+  <si>
+    <t>fortification</t>
+  </si>
+  <si>
+    <t>prescience</t>
+  </si>
+  <si>
+    <t>sporadic</t>
+  </si>
+  <si>
+    <t>ouster</t>
+  </si>
+  <si>
+    <t>spurred</t>
+  </si>
+  <si>
+    <t>asceticism</t>
+  </si>
+  <si>
+    <t>officious</t>
+  </si>
+  <si>
+    <t>limning</t>
+  </si>
+  <si>
+    <t>asseverating</t>
+  </si>
+  <si>
+    <t>arcadian</t>
+  </si>
+  <si>
+    <t>egregious</t>
+  </si>
+  <si>
+    <t>unfettered</t>
+  </si>
+  <si>
+    <t>jingoistic</t>
+  </si>
+  <si>
+    <t>cynicism</t>
+  </si>
+  <si>
+    <t>malevolence</t>
+  </si>
+  <si>
+    <t>jaded</t>
+  </si>
+  <si>
+    <t>truant</t>
+  </si>
+  <si>
+    <t>oblivious</t>
+  </si>
+  <si>
+    <t>fathomable</t>
+  </si>
+  <si>
+    <t>splenetic</t>
+  </si>
+  <si>
+    <t>iniquitous</t>
+  </si>
+  <si>
+    <t>dilatory</t>
+  </si>
+  <si>
+    <t>fatuous</t>
+  </si>
+  <si>
+    <t>indolent</t>
+  </si>
+  <si>
+    <t>hackneyed</t>
+  </si>
+  <si>
+    <t>proliferate</t>
+  </si>
+  <si>
+    <t>pique</t>
+  </si>
+  <si>
+    <t>superfluous</t>
+  </si>
+  <si>
+    <t>poseur</t>
+  </si>
+  <si>
+    <t>cannotation</t>
+  </si>
+  <si>
+    <t>linguistic</t>
+  </si>
+  <si>
+    <t>veracious</t>
+  </si>
+  <si>
+    <t>maladaptive</t>
+  </si>
+  <si>
+    <t>cogitation</t>
+  </si>
+  <si>
+    <t>mastication</t>
+  </si>
+  <si>
+    <t>enfeeble</t>
+  </si>
+  <si>
+    <t>injudicious</t>
+  </si>
+  <si>
+    <t>desoultory</t>
+  </si>
+  <si>
+    <t>ineluctable</t>
+  </si>
+  <si>
+    <t>seminal</t>
+  </si>
+  <si>
+    <t>bemoaned</t>
+  </si>
+  <si>
+    <t>captious</t>
+  </si>
+  <si>
+    <t>chimera</t>
+  </si>
+  <si>
+    <t>clerical</t>
+  </si>
+  <si>
+    <t>menial</t>
+  </si>
+  <si>
+    <t>venal</t>
+  </si>
+  <si>
+    <t>profressing</t>
+  </si>
+  <si>
+    <t>inveterate</t>
+  </si>
+  <si>
+    <t>radiant</t>
+  </si>
+  <si>
+    <t>meagerly</t>
+  </si>
+  <si>
+    <t>malodorous</t>
+  </si>
+  <si>
+    <t>caricatures</t>
+  </si>
+  <si>
+    <t>fallow</t>
+  </si>
+  <si>
+    <t>arrant</t>
+  </si>
+  <si>
+    <t>perilous</t>
+  </si>
+  <si>
+    <t>unbedizened</t>
+  </si>
+  <si>
+    <t>veritable</t>
+  </si>
+  <si>
+    <t>piquant</t>
+  </si>
+  <si>
+    <t>insouciant</t>
+  </si>
+  <si>
+    <t>jejune</t>
+  </si>
+  <si>
+    <t>adoration</t>
+  </si>
+  <si>
+    <t>balmy</t>
+  </si>
+  <si>
+    <t>convoluted</t>
+  </si>
+  <si>
+    <t>castrating</t>
+  </si>
+  <si>
+    <t>camaraderie</t>
+  </si>
+  <si>
+    <t>circadian</t>
+  </si>
+  <si>
+    <t>duplicitous</t>
+  </si>
+  <si>
+    <t>prosaic</t>
+  </si>
+  <si>
+    <t>wrought</t>
+  </si>
+  <si>
+    <t>intricate</t>
+  </si>
+  <si>
+    <t>rudimentary</t>
+  </si>
+  <si>
+    <t>purists</t>
+  </si>
+  <si>
+    <t>licentious</t>
+  </si>
+  <si>
+    <t>minimalist</t>
+  </si>
+  <si>
+    <t>undorned</t>
+  </si>
+  <si>
+    <t>refulgent</t>
+  </si>
+  <si>
+    <t>grandiose</t>
+  </si>
+  <si>
+    <t>epitome</t>
+  </si>
+  <si>
+    <t>quintessencw</t>
+  </si>
+  <si>
+    <t>salubrious</t>
+  </si>
+  <si>
+    <t>plantiff</t>
+  </si>
+  <si>
+    <t>subservient</t>
+  </si>
+  <si>
+    <t>unerring</t>
+  </si>
+  <si>
+    <t>innocuous</t>
+  </si>
+  <si>
+    <t>eviscerates</t>
+  </si>
+  <si>
+    <t>pervades</t>
+  </si>
+  <si>
+    <t>petulant</t>
+  </si>
+  <si>
+    <t>impung</t>
+  </si>
+  <si>
+    <t>metamorphosing</t>
+  </si>
+  <si>
+    <t>litheness</t>
+  </si>
+  <si>
+    <t>fatuity</t>
+  </si>
+  <si>
+    <t>haughtiness</t>
+  </si>
+  <si>
+    <t>dispel</t>
+  </si>
+  <si>
+    <t>incantation</t>
+  </si>
+  <si>
+    <t>jaundiced</t>
+  </si>
+  <si>
+    <t>parochial</t>
+  </si>
+  <si>
+    <t>relish</t>
+  </si>
+  <si>
+    <t>exegesis</t>
   </si>
 </sst>
 </file>
@@ -1749,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,18 +2541,27 @@
       <c r="I6" t="s">
         <v>74</v>
       </c>
+      <c r="J6" t="s">
+        <v>461</v>
+      </c>
       <c r="L6" t="s">
         <v>225</v>
       </c>
       <c r="M6" t="s">
         <v>99</v>
       </c>
+      <c r="N6" t="s">
+        <v>460</v>
+      </c>
       <c r="O6" t="s">
         <v>285</v>
       </c>
       <c r="P6" t="s">
         <v>82</v>
       </c>
+      <c r="Q6" t="s">
+        <v>485</v>
+      </c>
       <c r="R6" t="s">
         <v>55</v>
       </c>
@@ -2189,6 +2576,9 @@
       </c>
       <c r="V6" t="s">
         <v>327</v>
+      </c>
+      <c r="W6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -2219,18 +2609,27 @@
       <c r="I7" t="s">
         <v>78</v>
       </c>
+      <c r="J7" t="s">
+        <v>500</v>
+      </c>
       <c r="L7" t="s">
         <v>230</v>
       </c>
       <c r="M7" t="s">
         <v>116</v>
       </c>
+      <c r="N7" t="s">
+        <v>478</v>
+      </c>
       <c r="O7" t="s">
         <v>315</v>
       </c>
       <c r="P7" t="s">
         <v>87</v>
       </c>
+      <c r="Q7" t="s">
+        <v>566</v>
+      </c>
       <c r="R7" t="s">
         <v>61</v>
       </c>
@@ -2245,6 +2644,9 @@
       </c>
       <c r="V7" t="s">
         <v>449</v>
+      </c>
+      <c r="W7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -2275,6 +2677,9 @@
       <c r="I8" t="s">
         <v>90</v>
       </c>
+      <c r="J8" t="s">
+        <v>503</v>
+      </c>
       <c r="L8" t="s">
         <v>286</v>
       </c>
@@ -2295,6 +2700,12 @@
       </c>
       <c r="T8" t="s">
         <v>263</v>
+      </c>
+      <c r="U8" t="s">
+        <v>499</v>
+      </c>
+      <c r="V8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2316,12 +2727,18 @@
       <c r="F9" t="s">
         <v>217</v>
       </c>
+      <c r="G9" t="s">
+        <v>476</v>
+      </c>
       <c r="H9" t="s">
         <v>452</v>
       </c>
       <c r="I9" t="s">
         <v>97</v>
       </c>
+      <c r="J9" t="s">
+        <v>547</v>
+      </c>
       <c r="L9" t="s">
         <v>287</v>
       </c>
@@ -2342,6 +2759,12 @@
       </c>
       <c r="T9" t="s">
         <v>266</v>
+      </c>
+      <c r="U9" t="s">
+        <v>543</v>
+      </c>
+      <c r="V9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2363,9 +2786,18 @@
       <c r="F10" t="s">
         <v>223</v>
       </c>
+      <c r="G10" t="s">
+        <v>564</v>
+      </c>
+      <c r="H10" t="s">
+        <v>512</v>
+      </c>
       <c r="I10" t="s">
         <v>118</v>
       </c>
+      <c r="J10" t="s">
+        <v>582</v>
+      </c>
       <c r="L10" t="s">
         <v>350</v>
       </c>
@@ -2386,6 +2818,12 @@
       </c>
       <c r="T10" t="s">
         <v>267</v>
+      </c>
+      <c r="U10" t="s">
+        <v>562</v>
+      </c>
+      <c r="V10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2407,6 +2845,9 @@
       <c r="F11" t="s">
         <v>235</v>
       </c>
+      <c r="H11" t="s">
+        <v>579</v>
+      </c>
       <c r="I11" t="s">
         <v>115</v>
       </c>
@@ -2430,6 +2871,9 @@
       </c>
       <c r="T11" t="s">
         <v>272</v>
+      </c>
+      <c r="U11" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2504,6 +2948,9 @@
       <c r="M13" t="s">
         <v>154</v>
       </c>
+      <c r="O13" t="s">
+        <v>466</v>
+      </c>
       <c r="P13" t="s">
         <v>119</v>
       </c>
@@ -2545,6 +2992,9 @@
       <c r="M14" t="s">
         <v>163</v>
       </c>
+      <c r="O14" t="s">
+        <v>491</v>
+      </c>
       <c r="P14" t="s">
         <v>178</v>
       </c>
@@ -2580,8 +3030,14 @@
       <c r="I15" t="s">
         <v>134</v>
       </c>
+      <c r="L15" t="s">
+        <v>495</v>
+      </c>
       <c r="M15" t="s">
         <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>494</v>
       </c>
       <c r="P15" t="s">
         <v>180</v>
@@ -2618,8 +3074,14 @@
       <c r="I16" t="s">
         <v>148</v>
       </c>
+      <c r="L16" t="s">
+        <v>518</v>
+      </c>
       <c r="M16" t="s">
         <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>505</v>
       </c>
       <c r="P16" t="s">
         <v>181</v>
@@ -2656,6 +3118,9 @@
       <c r="I17" t="s">
         <v>168</v>
       </c>
+      <c r="L17" t="s">
+        <v>560</v>
+      </c>
       <c r="M17" t="s">
         <v>179</v>
       </c>
@@ -2694,6 +3159,9 @@
       <c r="I18" t="s">
         <v>174</v>
       </c>
+      <c r="L18" t="s">
+        <v>577</v>
+      </c>
       <c r="M18" t="s">
         <v>214</v>
       </c>
@@ -2744,11 +3212,17 @@
       <c r="S19" t="s">
         <v>242</v>
       </c>
+      <c r="T19" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>191</v>
       </c>
+      <c r="B20" t="s">
+        <v>528</v>
+      </c>
       <c r="C20" t="s">
         <v>295</v>
       </c>
@@ -2757,6 +3231,9 @@
       </c>
       <c r="E20" t="s">
         <v>354</v>
+      </c>
+      <c r="F20" t="s">
+        <v>473</v>
       </c>
       <c r="I20" t="s">
         <v>241</v>
@@ -2778,6 +3255,9 @@
       <c r="A21" t="s">
         <v>192</v>
       </c>
+      <c r="B21" t="s">
+        <v>549</v>
+      </c>
       <c r="C21" t="s">
         <v>299</v>
       </c>
@@ -2786,6 +3266,9 @@
       </c>
       <c r="E21" t="s">
         <v>355</v>
+      </c>
+      <c r="F21" t="s">
+        <v>484</v>
       </c>
       <c r="I21" t="s">
         <v>250</v>
@@ -2816,6 +3299,9 @@
       <c r="E22" t="s">
         <v>358</v>
       </c>
+      <c r="F22" t="s">
+        <v>487</v>
+      </c>
       <c r="I22" t="s">
         <v>260</v>
       </c>
@@ -2845,6 +3331,9 @@
       <c r="E23" t="s">
         <v>412</v>
       </c>
+      <c r="F23" t="s">
+        <v>488</v>
+      </c>
       <c r="I23" t="s">
         <v>264</v>
       </c>
@@ -2874,6 +3363,9 @@
       <c r="E24" t="s">
         <v>418</v>
       </c>
+      <c r="F24" t="s">
+        <v>506</v>
+      </c>
       <c r="I24" t="s">
         <v>278</v>
       </c>
@@ -2903,6 +3395,9 @@
       <c r="E25" t="s">
         <v>423</v>
       </c>
+      <c r="F25" t="s">
+        <v>510</v>
+      </c>
       <c r="I25" t="s">
         <v>280</v>
       </c>
@@ -2932,6 +3427,9 @@
       <c r="E26" t="s">
         <v>427</v>
       </c>
+      <c r="F26" t="s">
+        <v>540</v>
+      </c>
       <c r="I26" t="s">
         <v>282</v>
       </c>
@@ -2961,6 +3459,9 @@
       <c r="E27" t="s">
         <v>428</v>
       </c>
+      <c r="F27" t="s">
+        <v>563</v>
+      </c>
       <c r="I27" t="s">
         <v>297</v>
       </c>
@@ -2990,6 +3491,9 @@
       <c r="E28" t="s">
         <v>429</v>
       </c>
+      <c r="F28" t="s">
+        <v>578</v>
+      </c>
       <c r="I28" t="s">
         <v>298</v>
       </c>
@@ -2998,6 +3502,9 @@
       </c>
       <c r="P28" t="s">
         <v>254</v>
+      </c>
+      <c r="R28" t="s">
+        <v>465</v>
       </c>
       <c r="S28" t="s">
         <v>394</v>
@@ -3025,6 +3532,9 @@
       <c r="P29" t="s">
         <v>257</v>
       </c>
+      <c r="R29" t="s">
+        <v>477</v>
+      </c>
       <c r="S29" t="s">
         <v>405</v>
       </c>
@@ -3051,6 +3561,9 @@
       <c r="P30" t="s">
         <v>259</v>
       </c>
+      <c r="R30" t="s">
+        <v>480</v>
+      </c>
       <c r="S30" t="s">
         <v>409</v>
       </c>
@@ -3077,6 +3590,9 @@
       <c r="P31" t="s">
         <v>290</v>
       </c>
+      <c r="R31" t="s">
+        <v>482</v>
+      </c>
       <c r="S31" t="s">
         <v>419</v>
       </c>
@@ -3091,11 +3607,20 @@
       <c r="D32" t="s">
         <v>445</v>
       </c>
+      <c r="E32" t="s">
+        <v>468</v>
+      </c>
       <c r="I32" t="s">
         <v>346</v>
       </c>
+      <c r="M32" t="s">
+        <v>502</v>
+      </c>
       <c r="P32" t="s">
         <v>296</v>
+      </c>
+      <c r="R32" t="s">
+        <v>536</v>
       </c>
       <c r="S32" t="s">
         <v>424</v>
@@ -3111,11 +3636,20 @@
       <c r="D33" t="s">
         <v>454</v>
       </c>
+      <c r="E33" t="s">
+        <v>483</v>
+      </c>
       <c r="I33" t="s">
         <v>347</v>
       </c>
+      <c r="M33" t="s">
+        <v>520</v>
+      </c>
       <c r="P33" t="s">
         <v>304</v>
+      </c>
+      <c r="R33" t="s">
+        <v>558</v>
       </c>
       <c r="S33" t="s">
         <v>447</v>
@@ -3128,11 +3662,26 @@
       <c r="C34" t="s">
         <v>380</v>
       </c>
+      <c r="D34" t="s">
+        <v>509</v>
+      </c>
+      <c r="E34" t="s">
+        <v>498</v>
+      </c>
       <c r="I34" t="s">
         <v>348</v>
       </c>
+      <c r="M34" t="s">
+        <v>522</v>
+      </c>
       <c r="P34" t="s">
         <v>326</v>
+      </c>
+      <c r="R34" t="s">
+        <v>584</v>
+      </c>
+      <c r="S34" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3142,11 +3691,23 @@
       <c r="C35" t="s">
         <v>382</v>
       </c>
+      <c r="D35" t="s">
+        <v>525</v>
+      </c>
+      <c r="E35" t="s">
+        <v>523</v>
+      </c>
       <c r="I35" t="s">
         <v>349</v>
       </c>
+      <c r="M35" t="s">
+        <v>532</v>
+      </c>
       <c r="P35" t="s">
         <v>328</v>
+      </c>
+      <c r="S35" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3156,11 +3717,23 @@
       <c r="C36" t="s">
         <v>401</v>
       </c>
+      <c r="D36" t="s">
+        <v>554</v>
+      </c>
+      <c r="E36" t="s">
+        <v>565</v>
+      </c>
       <c r="I36" t="s">
         <v>372</v>
       </c>
+      <c r="M36" t="s">
+        <v>537</v>
+      </c>
       <c r="P36" t="s">
         <v>360</v>
+      </c>
+      <c r="S36" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3170,11 +3743,23 @@
       <c r="C37" t="s">
         <v>403</v>
       </c>
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+      <c r="E37" t="s">
+        <v>572</v>
+      </c>
       <c r="I37" t="s">
         <v>379</v>
       </c>
+      <c r="M37" t="s">
+        <v>538</v>
+      </c>
       <c r="P37" t="s">
         <v>366</v>
+      </c>
+      <c r="S37" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3184,11 +3769,20 @@
       <c r="C38" t="s">
         <v>436</v>
       </c>
+      <c r="E38" t="s">
+        <v>585</v>
+      </c>
       <c r="I38" t="s">
         <v>422</v>
       </c>
+      <c r="M38" t="s">
+        <v>561</v>
+      </c>
       <c r="P38" t="s">
         <v>370</v>
+      </c>
+      <c r="S38" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3201,11 +3795,20 @@
       <c r="I39" t="s">
         <v>426</v>
       </c>
+      <c r="M39" t="s">
+        <v>576</v>
+      </c>
       <c r="P39" t="s">
         <v>371</v>
       </c>
+      <c r="S39" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
       <c r="C40" t="s">
         <v>451</v>
       </c>
@@ -3215,66 +3818,252 @@
       <c r="P40" t="s">
         <v>375</v>
       </c>
+      <c r="S40" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>471</v>
+      </c>
+      <c r="C41" t="s">
+        <v>472</v>
+      </c>
       <c r="I41" t="s">
         <v>450</v>
       </c>
       <c r="P41" t="s">
         <v>383</v>
       </c>
+      <c r="S41" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" t="s">
+        <v>501</v>
+      </c>
+      <c r="I42" t="s">
+        <v>463</v>
+      </c>
       <c r="P42" t="s">
         <v>388</v>
       </c>
+      <c r="S42" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C43" t="s">
+        <v>517</v>
+      </c>
+      <c r="I43" t="s">
+        <v>474</v>
+      </c>
       <c r="P43" t="s">
         <v>393</v>
       </c>
+      <c r="S43" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" t="s">
+        <v>521</v>
+      </c>
+      <c r="I44" t="s">
+        <v>475</v>
+      </c>
       <c r="P44" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>541</v>
+      </c>
+      <c r="C45" t="s">
+        <v>529</v>
+      </c>
+      <c r="I45" t="s">
+        <v>508</v>
+      </c>
       <c r="P45" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C46" t="s">
+        <v>530</v>
+      </c>
+      <c r="I46" t="s">
+        <v>511</v>
+      </c>
       <c r="P46" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>531</v>
+      </c>
+      <c r="I47" t="s">
+        <v>524</v>
+      </c>
       <c r="P47" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>539</v>
+      </c>
+      <c r="I48" t="s">
+        <v>526</v>
+      </c>
       <c r="P48" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>550</v>
+      </c>
+      <c r="I49" t="s">
+        <v>535</v>
+      </c>
       <c r="P49" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>551</v>
+      </c>
+      <c r="I50" t="s">
+        <v>546</v>
+      </c>
       <c r="P50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>552</v>
+      </c>
+      <c r="I51" t="s">
+        <v>557</v>
+      </c>
       <c r="P51" t="s">
         <v>455</v>
       </c>
     </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>553</v>
+      </c>
+      <c r="I52" t="s">
+        <v>571</v>
+      </c>
+      <c r="P52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>575</v>
+      </c>
+      <c r="P53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>581</v>
+      </c>
+      <c r="P54" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>